--- a/Data Dictionaries/Database_DataDictionary.xlsx
+++ b/Data Dictionaries/Database_DataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicayounger/Desktop/BetterTogether_Scripts_Deidentify/Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046CA4F7-1780-7346-BCDD-29152342493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4824C6A4-CBBF-B14B-BD09-9AC67556AACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16000" xr2:uid="{5DFAC491-F3AC-E14D-81A8-681B5E866EDB}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="18900" windowHeight="16000" xr2:uid="{5DFAC491-F3AC-E14D-81A8-681B5E866EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>pid</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Birthdate_provided</t>
   </si>
   <si>
-    <t>age_months</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -69,13 +66,28 @@
     <t>Whether the participant provided the birthdate (1) or not (0)</t>
   </si>
   <si>
-    <t>Calculated age in months based on the birthdate provided or approximated</t>
-  </si>
-  <si>
     <t>If birthdate was not provided, an approximated date of 01/01 on the second year that the participants classmates were born (e.g., if classmates had birthdates between 2003 and 2004, the approximated birthdate would be 01/01/2004)</t>
   </si>
   <si>
     <t>Which (blinded) school was the participant attending at the time of the session</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>playcount</t>
+  </si>
+  <si>
+    <t>time_since_firstgameplay</t>
+  </si>
+  <si>
+    <t>Calculated age in years based on the birthdate provided or approximated</t>
+  </si>
+  <si>
+    <t>Time in months that have passed since a participant's first ACE session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of times the participant has played ACE, which may not correspond to the Time.Point in cases where participant missed a session (1-4) </t>
   </si>
 </sst>
 </file>
@@ -452,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA81048-D65A-C84A-AD10-7FE3482A2303}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,10 +480,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -479,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -487,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -495,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -503,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -511,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -519,18 +531,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
